--- a/model_paper/lidar_info.xlsx
+++ b/model_paper/lidar_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD2C78-FBCC-4A33-A018-1FCA16131C4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DEF86B-B2CC-4275-B112-C97A6720BC33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,27 +57,15 @@
     <t>070801050901</t>
   </si>
   <si>
-    <t>Kelley, IA</t>
-  </si>
-  <si>
     <t>080102040304</t>
   </si>
   <si>
-    <t>Western TN</t>
-  </si>
-  <si>
     <t>130202090102</t>
   </si>
   <si>
-    <t>Alamo, NM</t>
-  </si>
-  <si>
     <t>140801040103</t>
   </si>
   <si>
-    <t>Southwest CO</t>
-  </si>
-  <si>
     <t>180500020905</t>
   </si>
   <si>
@@ -151,6 +139,18 @@
   </si>
   <si>
     <t>Earth Eye</t>
+  </si>
+  <si>
+    <t>Trenton, TN</t>
+  </si>
+  <si>
+    <t>Ames, IA</t>
+  </si>
+  <si>
+    <t>Datil, NM</t>
+  </si>
+  <si>
+    <t>Telluride, CO</t>
   </si>
 </sst>
 </file>
@@ -215,9 +215,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +225,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +512,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,41 +528,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -572,22 +572,22 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42113</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>42136</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>1.4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.7</v>
       </c>
     </row>
@@ -598,22 +598,22 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>39245</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>39515</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.67</v>
       </c>
     </row>
@@ -622,218 +622,218 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
         <v>39179</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>40325</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5">
         <v>40879</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>40912</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>1.2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
         <v>43041</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>43139</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>1.4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
         <v>42994</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>43032</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2">
         <v>1.4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
         <v>40291</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>40373</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>1.2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
         <v>42758</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>42849</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
         <v>1.4</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
         <v>41037</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>41038</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2">
         <v>1.3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>1.46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
         <v>40282</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>40305</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>1.2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>1.33</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:B9 A11:B13 A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:B4 A11:B13 A10 A9:B9 A5 A6 A7 A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/model_paper/lidar_info.xlsx
+++ b/model_paper/lidar_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DEF86B-B2CC-4275-B112-C97A6720BC33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C7886A-A3B6-4A2D-BD98-12D5CF84A151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
